--- a/Checklist Before Go-Live/Implementation transition to Support.xlsx
+++ b/Checklist Before Go-Live/Implementation transition to Support.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mudit Sharma\Documents\Partner\TTV\Artificats showing Plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darsh\OneDrive\Documents\GitHub\SaviyntArtifacts\Checklist Before Go-Live\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6886E70-17BA-4534-8CD5-6FD3BCF2367F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF350F9-2FCF-4F77-B222-FB0CED1A83C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Knowlege Transfer Sessi" sheetId="2" r:id="rId1"/>
@@ -860,15 +860,17 @@
   </sheetPr>
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.54296875" customWidth="1"/>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
     <col min="2" max="2" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -895,7 +897,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -920,7 +922,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -928,109 +930,109 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="8"/>
     </row>
-    <row r="7" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="8"/>
     </row>
-    <row r="13" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="8"/>
     </row>
-    <row r="15" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:21" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="8"/>
     </row>
-    <row r="17" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="8"/>
     </row>
-    <row r="18" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
@@ -1047,20 +1049,20 @@
   </sheetPr>
   <dimension ref="A1:AB910"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C87"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7265625" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
     <col min="4" max="4" width="43" customWidth="1"/>
-    <col min="8" max="9" width="28.7265625" customWidth="1"/>
+    <col min="8" max="9" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1096,7 @@
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
     </row>
-    <row r="2" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1126,7 +1128,7 @@
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
     </row>
-    <row r="3" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -1158,7 +1160,7 @@
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
     </row>
-    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
@@ -1206,7 +1208,7 @@
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
     </row>
-    <row r="5" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>33</v>
       </c>
@@ -1240,7 +1242,7 @@
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
     </row>
-    <row r="6" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>35</v>
       </c>
@@ -1255,7 +1257,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="16"/>
     </row>
-    <row r="7" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>37</v>
       </c>
@@ -1270,7 +1272,7 @@
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
     </row>
-    <row r="8" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="15" t="s">
         <v>39</v>
@@ -1283,7 +1285,7 @@
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>40</v>
       </c>
@@ -1298,7 +1300,7 @@
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
     </row>
-    <row r="10" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>42</v>
       </c>
@@ -1313,7 +1315,7 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
     </row>
-    <row r="11" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="7" t="s">
         <v>44</v>
@@ -1326,7 +1328,7 @@
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
     </row>
-    <row r="12" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="15" t="s">
         <v>45</v>
@@ -1339,7 +1341,7 @@
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
     </row>
-    <row r="13" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>46</v>
       </c>
@@ -1354,7 +1356,7 @@
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
     </row>
-    <row r="14" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="15" t="s">
         <v>48</v>
@@ -1367,7 +1369,7 @@
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
     </row>
-    <row r="15" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>49</v>
       </c>
@@ -1382,7 +1384,7 @@
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
     </row>
-    <row r="16" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="32"/>
       <c r="B16" s="7" t="s">
         <v>51</v>
@@ -1395,7 +1397,7 @@
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
     </row>
-    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="32"/>
       <c r="B17" s="7" t="s">
         <v>52</v>
@@ -1408,7 +1410,7 @@
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
     </row>
-    <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="15" t="s">
         <v>53</v>
@@ -1421,7 +1423,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>54</v>
       </c>
@@ -1436,7 +1438,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>56</v>
       </c>
@@ -1451,7 +1453,7 @@
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
     </row>
-    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>58</v>
       </c>
@@ -1466,7 +1468,7 @@
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
     </row>
-    <row r="22" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>60</v>
       </c>
@@ -1481,7 +1483,7 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>62</v>
       </c>
@@ -1496,7 +1498,7 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
     </row>
-    <row r="24" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="7" t="s">
         <v>64</v>
@@ -1509,7 +1511,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>65</v>
       </c>
@@ -1524,7 +1526,7 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
     </row>
-    <row r="26" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>67</v>
       </c>
@@ -1539,7 +1541,7 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
     </row>
-    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="7" t="s">
         <v>69</v>
@@ -1552,13 +1554,13 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
     </row>
-    <row r="28" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="8"/>
       <c r="D28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>70</v>
       </c>
@@ -1570,7 +1572,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32"/>
       <c r="B30" s="7" t="s">
         <v>73</v>
@@ -1580,7 +1582,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="29.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
       <c r="B31" s="7" t="s">
         <v>74</v>
@@ -1591,7 +1593,7 @@
       </c>
       <c r="G31" s="21"/>
     </row>
-    <row r="32" spans="1:9" ht="19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32"/>
       <c r="B32" s="7" t="s">
         <v>75</v>
@@ -1602,7 +1604,7 @@
       </c>
       <c r="G32" s="21"/>
     </row>
-    <row r="33" spans="1:28" ht="29.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="7" t="s">
         <v>76</v>
@@ -1613,7 +1615,7 @@
       </c>
       <c r="G33" s="21"/>
     </row>
-    <row r="34" spans="1:28" ht="73" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="7" t="s">
         <v>77</v>
@@ -1624,7 +1626,7 @@
       </c>
       <c r="G34" s="21"/>
     </row>
-    <row r="35" spans="1:28" ht="29.5" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
       <c r="B35" s="7" t="s">
         <v>78</v>
@@ -1635,7 +1637,7 @@
       </c>
       <c r="G35" s="21"/>
     </row>
-    <row r="36" spans="1:28" ht="19" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="7" t="s">
         <v>79</v>
@@ -1646,7 +1648,7 @@
       </c>
       <c r="G36" s="21"/>
     </row>
-    <row r="37" spans="1:28" ht="14.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="7" t="s">
         <v>80</v>
@@ -1656,7 +1658,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="43.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="22" t="s">
         <v>81</v>
@@ -1666,7 +1668,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="7" t="s">
         <v>82</v>
@@ -1676,7 +1678,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="29" t="s">
         <v>83</v>
       </c>
@@ -1712,7 +1714,7 @@
       <c r="AA40" s="14"/>
       <c r="AB40" s="14"/>
     </row>
-    <row r="41" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
       <c r="B41" s="23" t="s">
         <v>86</v>
@@ -1744,7 +1746,7 @@
       <c r="AA41" s="14"/>
       <c r="AB41" s="14"/>
     </row>
-    <row r="42" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>87</v>
       </c>
@@ -1780,7 +1782,7 @@
       <c r="AA42" s="14"/>
       <c r="AB42" s="14"/>
     </row>
-    <row r="43" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>90</v>
       </c>
@@ -1814,7 +1816,7 @@
       <c r="AA43" s="14"/>
       <c r="AB43" s="14"/>
     </row>
-    <row r="44" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="23" t="s">
         <v>92</v>
@@ -1846,7 +1848,7 @@
       <c r="AA44" s="14"/>
       <c r="AB44" s="14"/>
     </row>
-    <row r="45" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
       <c r="B45" s="23" t="s">
         <v>93</v>
@@ -1878,7 +1880,7 @@
       <c r="AA45" s="14"/>
       <c r="AB45" s="14"/>
     </row>
-    <row r="46" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="23" t="s">
         <v>94</v>
@@ -1910,7 +1912,7 @@
       <c r="AA46" s="14"/>
       <c r="AB46" s="14"/>
     </row>
-    <row r="47" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="23" t="s">
         <v>95</v>
@@ -1942,7 +1944,7 @@
       <c r="AA47" s="14"/>
       <c r="AB47" s="14"/>
     </row>
-    <row r="48" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="31" t="s">
         <v>96</v>
       </c>
@@ -1978,7 +1980,7 @@
       <c r="AA48" s="14"/>
       <c r="AB48" s="14"/>
     </row>
-    <row r="49" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="23" t="s">
         <v>99</v>
@@ -2012,7 +2014,7 @@
       <c r="AA49" s="14"/>
       <c r="AB49" s="14"/>
     </row>
-    <row r="50" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
       <c r="B50" s="23" t="s">
         <v>101</v>
@@ -2046,7 +2048,7 @@
       <c r="AA50" s="14"/>
       <c r="AB50" s="14"/>
     </row>
-    <row r="51" spans="1:28" ht="58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
       <c r="B51" s="23" t="s">
         <v>102</v>
@@ -2078,7 +2080,7 @@
       <c r="AA51" s="14"/>
       <c r="AB51" s="14"/>
     </row>
-    <row r="52" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="32"/>
       <c r="B52" s="23" t="s">
         <v>103</v>
@@ -2112,7 +2114,7 @@
       <c r="AA52" s="14"/>
       <c r="AB52" s="14"/>
     </row>
-    <row r="53" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
       <c r="B53" s="23" t="s">
         <v>105</v>
@@ -2146,7 +2148,7 @@
       <c r="AA53" s="14"/>
       <c r="AB53" s="14"/>
     </row>
-    <row r="54" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="30"/>
       <c r="B54" s="23" t="s">
         <v>107</v>
@@ -2178,7 +2180,7 @@
       <c r="AA54" s="14"/>
       <c r="AB54" s="14"/>
     </row>
-    <row r="55" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="31" t="s">
         <v>108</v>
       </c>
@@ -2212,7 +2214,7 @@
       <c r="AA55" s="14"/>
       <c r="AB55" s="14"/>
     </row>
-    <row r="56" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="32"/>
       <c r="B56" s="23" t="s">
         <v>110</v>
@@ -2244,7 +2246,7 @@
       <c r="AA56" s="14"/>
       <c r="AB56" s="14"/>
     </row>
-    <row r="57" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="32"/>
       <c r="B57" s="23" t="s">
         <v>111</v>
@@ -2276,7 +2278,7 @@
       <c r="AA57" s="14"/>
       <c r="AB57" s="14"/>
     </row>
-    <row r="58" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="32"/>
       <c r="B58" s="23" t="s">
         <v>112</v>
@@ -2308,7 +2310,7 @@
       <c r="AA58" s="14"/>
       <c r="AB58" s="14"/>
     </row>
-    <row r="59" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="32"/>
       <c r="B59" s="23" t="s">
         <v>113</v>
@@ -2340,7 +2342,7 @@
       <c r="AA59" s="14"/>
       <c r="AB59" s="14"/>
     </row>
-    <row r="60" spans="1:28" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="32"/>
       <c r="B60" s="23" t="s">
         <v>114</v>
@@ -2372,7 +2374,7 @@
       <c r="AA60" s="14"/>
       <c r="AB60" s="14"/>
     </row>
-    <row r="61" spans="1:28" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:28" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
       <c r="B61" s="23" t="s">
         <v>115</v>
@@ -2406,2551 +2408,2551 @@
       <c r="AA61" s="14"/>
       <c r="AB61" s="14"/>
     </row>
-    <row r="62" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B62" s="26"/>
     </row>
-    <row r="63" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B63" s="26"/>
     </row>
-    <row r="64" spans="1:28" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B64" s="26"/>
     </row>
-    <row r="65" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B65" s="26"/>
     </row>
-    <row r="66" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="26"/>
     </row>
-    <row r="67" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" s="26"/>
     </row>
-    <row r="68" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="26"/>
     </row>
-    <row r="69" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="26"/>
     </row>
-    <row r="70" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="26"/>
     </row>
-    <row r="71" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="26"/>
     </row>
-    <row r="72" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="26"/>
     </row>
-    <row r="73" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B73" s="26"/>
     </row>
-    <row r="74" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="26"/>
     </row>
-    <row r="75" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="26"/>
     </row>
-    <row r="76" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B76" s="26"/>
     </row>
-    <row r="77" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="26"/>
     </row>
-    <row r="78" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="26"/>
     </row>
-    <row r="79" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B79" s="26"/>
     </row>
-    <row r="80" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="26"/>
     </row>
-    <row r="81" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="26"/>
     </row>
-    <row r="82" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B82" s="26"/>
     </row>
-    <row r="83" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="26"/>
     </row>
-    <row r="84" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B84" s="26"/>
     </row>
-    <row r="85" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="26"/>
     </row>
-    <row r="86" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="26"/>
     </row>
-    <row r="87" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="26"/>
     </row>
-    <row r="88" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="26"/>
     </row>
-    <row r="89" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B89" s="26"/>
     </row>
-    <row r="90" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="26"/>
     </row>
-    <row r="91" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="26"/>
     </row>
-    <row r="92" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="26"/>
     </row>
-    <row r="93" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="26"/>
     </row>
-    <row r="94" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="26"/>
     </row>
-    <row r="95" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="26"/>
     </row>
-    <row r="96" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="26"/>
     </row>
-    <row r="97" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="26"/>
     </row>
-    <row r="98" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B98" s="26"/>
     </row>
-    <row r="99" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="26"/>
     </row>
-    <row r="100" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="26"/>
     </row>
-    <row r="101" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="26"/>
     </row>
-    <row r="102" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="26"/>
     </row>
-    <row r="103" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="26"/>
     </row>
-    <row r="104" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B104" s="26"/>
     </row>
-    <row r="105" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="26"/>
     </row>
-    <row r="106" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="26"/>
     </row>
-    <row r="107" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="26"/>
     </row>
-    <row r="108" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="26"/>
     </row>
-    <row r="109" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="26"/>
     </row>
-    <row r="110" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="26"/>
     </row>
-    <row r="111" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B111" s="26"/>
     </row>
-    <row r="112" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="26"/>
     </row>
-    <row r="113" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B113" s="26"/>
     </row>
-    <row r="114" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B114" s="26"/>
     </row>
-    <row r="115" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B115" s="26"/>
     </row>
-    <row r="116" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B116" s="26"/>
     </row>
-    <row r="117" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B117" s="26"/>
     </row>
-    <row r="118" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B118" s="26"/>
     </row>
-    <row r="119" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B119" s="26"/>
     </row>
-    <row r="120" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B120" s="26"/>
     </row>
-    <row r="121" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B121" s="26"/>
     </row>
-    <row r="122" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B122" s="26"/>
     </row>
-    <row r="123" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B123" s="26"/>
     </row>
-    <row r="124" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B124" s="26"/>
     </row>
-    <row r="125" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B125" s="26"/>
     </row>
-    <row r="126" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B126" s="26"/>
     </row>
-    <row r="127" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B127" s="26"/>
     </row>
-    <row r="128" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B128" s="26"/>
     </row>
-    <row r="129" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B129" s="26"/>
     </row>
-    <row r="130" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B130" s="26"/>
     </row>
-    <row r="131" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B131" s="26"/>
     </row>
-    <row r="132" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B132" s="26"/>
     </row>
-    <row r="133" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B133" s="26"/>
     </row>
-    <row r="134" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B134" s="26"/>
     </row>
-    <row r="135" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B135" s="26"/>
     </row>
-    <row r="136" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B136" s="26"/>
     </row>
-    <row r="137" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B137" s="26"/>
     </row>
-    <row r="138" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B138" s="26"/>
     </row>
-    <row r="139" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B139" s="26"/>
     </row>
-    <row r="140" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B140" s="26"/>
     </row>
-    <row r="141" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B141" s="26"/>
     </row>
-    <row r="142" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B142" s="26"/>
     </row>
-    <row r="143" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B143" s="26"/>
     </row>
-    <row r="144" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B144" s="26"/>
     </row>
-    <row r="145" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="26"/>
     </row>
-    <row r="146" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="26"/>
     </row>
-    <row r="147" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="26"/>
     </row>
-    <row r="148" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="26"/>
     </row>
-    <row r="149" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="26"/>
     </row>
-    <row r="150" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="26"/>
     </row>
-    <row r="151" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="26"/>
     </row>
-    <row r="152" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="26"/>
     </row>
-    <row r="153" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="26"/>
     </row>
-    <row r="154" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="26"/>
     </row>
-    <row r="155" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="26"/>
     </row>
-    <row r="156" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="26"/>
     </row>
-    <row r="157" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="26"/>
     </row>
-    <row r="158" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="26"/>
     </row>
-    <row r="159" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="26"/>
     </row>
-    <row r="160" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="26"/>
     </row>
-    <row r="161" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="26"/>
     </row>
-    <row r="162" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="26"/>
     </row>
-    <row r="163" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="26"/>
     </row>
-    <row r="164" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="26"/>
     </row>
-    <row r="165" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="26"/>
     </row>
-    <row r="166" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="26"/>
     </row>
-    <row r="167" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="26"/>
     </row>
-    <row r="168" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="26"/>
     </row>
-    <row r="169" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="26"/>
     </row>
-    <row r="170" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="26"/>
     </row>
-    <row r="171" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="26"/>
     </row>
-    <row r="172" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="26"/>
     </row>
-    <row r="173" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="26"/>
     </row>
-    <row r="174" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="26"/>
     </row>
-    <row r="175" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="26"/>
     </row>
-    <row r="176" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="26"/>
     </row>
-    <row r="177" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="26"/>
     </row>
-    <row r="178" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="26"/>
     </row>
-    <row r="179" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="26"/>
     </row>
-    <row r="180" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="26"/>
     </row>
-    <row r="181" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="26"/>
     </row>
-    <row r="182" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="26"/>
     </row>
-    <row r="183" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="26"/>
     </row>
-    <row r="184" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="26"/>
     </row>
-    <row r="185" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="26"/>
     </row>
-    <row r="186" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="26"/>
     </row>
-    <row r="187" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="26"/>
     </row>
-    <row r="188" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="26"/>
     </row>
-    <row r="189" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="26"/>
     </row>
-    <row r="190" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="26"/>
     </row>
-    <row r="191" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="26"/>
     </row>
-    <row r="192" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" s="26"/>
     </row>
-    <row r="193" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="26"/>
     </row>
-    <row r="194" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="26"/>
     </row>
-    <row r="195" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="26"/>
     </row>
-    <row r="196" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="26"/>
     </row>
-    <row r="197" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="26"/>
     </row>
-    <row r="198" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="26"/>
     </row>
-    <row r="199" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="26"/>
     </row>
-    <row r="200" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="26"/>
     </row>
-    <row r="201" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="26"/>
     </row>
-    <row r="202" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="26"/>
     </row>
-    <row r="203" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="26"/>
     </row>
-    <row r="204" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" s="26"/>
     </row>
-    <row r="205" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="26"/>
     </row>
-    <row r="206" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" s="26"/>
     </row>
-    <row r="207" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="26"/>
     </row>
-    <row r="208" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="26"/>
     </row>
-    <row r="209" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="26"/>
     </row>
-    <row r="210" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="26"/>
     </row>
-    <row r="211" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="26"/>
     </row>
-    <row r="212" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="26"/>
     </row>
-    <row r="213" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="26"/>
     </row>
-    <row r="214" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="26"/>
     </row>
-    <row r="215" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="26"/>
     </row>
-    <row r="216" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="26"/>
     </row>
-    <row r="217" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="26"/>
     </row>
-    <row r="218" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="26"/>
     </row>
-    <row r="219" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="26"/>
     </row>
-    <row r="220" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" s="26"/>
     </row>
-    <row r="221" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="26"/>
     </row>
-    <row r="222" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" s="26"/>
     </row>
-    <row r="223" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="26"/>
     </row>
-    <row r="224" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" s="26"/>
     </row>
-    <row r="225" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="26"/>
     </row>
-    <row r="226" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="26"/>
     </row>
-    <row r="227" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="26"/>
     </row>
-    <row r="228" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" s="26"/>
     </row>
-    <row r="229" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="26"/>
     </row>
-    <row r="230" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="26"/>
     </row>
-    <row r="231" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="26"/>
     </row>
-    <row r="232" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" s="26"/>
     </row>
-    <row r="233" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="26"/>
     </row>
-    <row r="234" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="26"/>
     </row>
-    <row r="235" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="26"/>
     </row>
-    <row r="236" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" s="26"/>
     </row>
-    <row r="237" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="26"/>
     </row>
-    <row r="238" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" s="26"/>
     </row>
-    <row r="239" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="26"/>
     </row>
-    <row r="240" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" s="26"/>
     </row>
-    <row r="241" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="26"/>
     </row>
-    <row r="242" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="26"/>
     </row>
-    <row r="243" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="26"/>
     </row>
-    <row r="244" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" s="26"/>
     </row>
-    <row r="245" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="26"/>
     </row>
-    <row r="246" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" s="26"/>
     </row>
-    <row r="247" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" s="26"/>
     </row>
-    <row r="248" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" s="26"/>
     </row>
-    <row r="249" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" s="26"/>
     </row>
-    <row r="250" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" s="26"/>
     </row>
-    <row r="251" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" s="26"/>
     </row>
-    <row r="252" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" s="26"/>
     </row>
-    <row r="253" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" s="26"/>
     </row>
-    <row r="254" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" s="26"/>
     </row>
-    <row r="255" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" s="26"/>
     </row>
-    <row r="256" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" s="26"/>
     </row>
-    <row r="257" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" s="26"/>
     </row>
-    <row r="258" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" s="26"/>
     </row>
-    <row r="259" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" s="26"/>
     </row>
-    <row r="260" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" s="26"/>
     </row>
-    <row r="261" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" s="26"/>
     </row>
-    <row r="262" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" s="26"/>
     </row>
-    <row r="263" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" s="26"/>
     </row>
-    <row r="264" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" s="26"/>
     </row>
-    <row r="265" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" s="26"/>
     </row>
-    <row r="266" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" s="26"/>
     </row>
-    <row r="267" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" s="26"/>
     </row>
-    <row r="268" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" s="26"/>
     </row>
-    <row r="269" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" s="26"/>
     </row>
-    <row r="270" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" s="26"/>
     </row>
-    <row r="271" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" s="26"/>
     </row>
-    <row r="272" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" s="26"/>
     </row>
-    <row r="273" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" s="26"/>
     </row>
-    <row r="274" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" s="26"/>
     </row>
-    <row r="275" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" s="26"/>
     </row>
-    <row r="276" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" s="26"/>
     </row>
-    <row r="277" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" s="26"/>
     </row>
-    <row r="278" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" s="26"/>
     </row>
-    <row r="279" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" s="26"/>
     </row>
-    <row r="280" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" s="26"/>
     </row>
-    <row r="281" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" s="26"/>
     </row>
-    <row r="282" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" s="26"/>
     </row>
-    <row r="283" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" s="26"/>
     </row>
-    <row r="284" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" s="26"/>
     </row>
-    <row r="285" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" s="26"/>
     </row>
-    <row r="286" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" s="26"/>
     </row>
-    <row r="287" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" s="26"/>
     </row>
-    <row r="288" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" s="26"/>
     </row>
-    <row r="289" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" s="26"/>
     </row>
-    <row r="290" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" s="26"/>
     </row>
-    <row r="291" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" s="26"/>
     </row>
-    <row r="292" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" s="26"/>
     </row>
-    <row r="293" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" s="26"/>
     </row>
-    <row r="294" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" s="26"/>
     </row>
-    <row r="295" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" s="26"/>
     </row>
-    <row r="296" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" s="26"/>
     </row>
-    <row r="297" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" s="26"/>
     </row>
-    <row r="298" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" s="26"/>
     </row>
-    <row r="299" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" s="26"/>
     </row>
-    <row r="300" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" s="26"/>
     </row>
-    <row r="301" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" s="26"/>
     </row>
-    <row r="302" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" s="26"/>
     </row>
-    <row r="303" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" s="26"/>
     </row>
-    <row r="304" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" s="26"/>
     </row>
-    <row r="305" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" s="26"/>
     </row>
-    <row r="306" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" s="26"/>
     </row>
-    <row r="307" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" s="26"/>
     </row>
-    <row r="308" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" s="26"/>
     </row>
-    <row r="309" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" s="26"/>
     </row>
-    <row r="310" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" s="26"/>
     </row>
-    <row r="311" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" s="26"/>
     </row>
-    <row r="312" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" s="26"/>
     </row>
-    <row r="313" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" s="26"/>
     </row>
-    <row r="314" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" s="26"/>
     </row>
-    <row r="315" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" s="26"/>
     </row>
-    <row r="316" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" s="26"/>
     </row>
-    <row r="317" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" s="26"/>
     </row>
-    <row r="318" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" s="26"/>
     </row>
-    <row r="319" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319" s="26"/>
     </row>
-    <row r="320" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" s="26"/>
     </row>
-    <row r="321" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" s="26"/>
     </row>
-    <row r="322" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" s="26"/>
     </row>
-    <row r="323" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" s="26"/>
     </row>
-    <row r="324" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324" s="26"/>
     </row>
-    <row r="325" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" s="26"/>
     </row>
-    <row r="326" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" s="26"/>
     </row>
-    <row r="327" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327" s="26"/>
     </row>
-    <row r="328" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" s="26"/>
     </row>
-    <row r="329" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" s="26"/>
     </row>
-    <row r="330" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B330" s="26"/>
     </row>
-    <row r="331" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" s="26"/>
     </row>
-    <row r="332" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" s="26"/>
     </row>
-    <row r="333" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" s="26"/>
     </row>
-    <row r="334" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334" s="26"/>
     </row>
-    <row r="335" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" s="26"/>
     </row>
-    <row r="336" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B336" s="26"/>
     </row>
-    <row r="337" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" s="26"/>
     </row>
-    <row r="338" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" s="26"/>
     </row>
-    <row r="339" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" s="26"/>
     </row>
-    <row r="340" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" s="26"/>
     </row>
-    <row r="341" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" s="26"/>
     </row>
-    <row r="342" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B342" s="26"/>
     </row>
-    <row r="343" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" s="26"/>
     </row>
-    <row r="344" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" s="26"/>
     </row>
-    <row r="345" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" s="26"/>
     </row>
-    <row r="346" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" s="26"/>
     </row>
-    <row r="347" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" s="26"/>
     </row>
-    <row r="348" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" s="26"/>
     </row>
-    <row r="349" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B349" s="26"/>
     </row>
-    <row r="350" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" s="26"/>
     </row>
-    <row r="351" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B351" s="26"/>
     </row>
-    <row r="352" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B352" s="26"/>
     </row>
-    <row r="353" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" s="26"/>
     </row>
-    <row r="354" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" s="26"/>
     </row>
-    <row r="355" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" s="26"/>
     </row>
-    <row r="356" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" s="26"/>
     </row>
-    <row r="357" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" s="26"/>
     </row>
-    <row r="358" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" s="26"/>
     </row>
-    <row r="359" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" s="26"/>
     </row>
-    <row r="360" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360" s="26"/>
     </row>
-    <row r="361" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361" s="26"/>
     </row>
-    <row r="362" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" s="26"/>
     </row>
-    <row r="363" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" s="26"/>
     </row>
-    <row r="364" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" s="26"/>
     </row>
-    <row r="365" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" s="26"/>
     </row>
-    <row r="366" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" s="26"/>
     </row>
-    <row r="367" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" s="26"/>
     </row>
-    <row r="368" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" s="26"/>
     </row>
-    <row r="369" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369" s="26"/>
     </row>
-    <row r="370" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B370" s="26"/>
     </row>
-    <row r="371" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" s="26"/>
     </row>
-    <row r="372" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B372" s="26"/>
     </row>
-    <row r="373" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B373" s="26"/>
     </row>
-    <row r="374" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374" s="26"/>
     </row>
-    <row r="375" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B375" s="26"/>
     </row>
-    <row r="376" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376" s="26"/>
     </row>
-    <row r="377" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" s="26"/>
     </row>
-    <row r="378" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378" s="26"/>
     </row>
-    <row r="379" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B379" s="26"/>
     </row>
-    <row r="380" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" s="26"/>
     </row>
-    <row r="381" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B381" s="26"/>
     </row>
-    <row r="382" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B382" s="26"/>
     </row>
-    <row r="383" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" s="26"/>
     </row>
-    <row r="384" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B384" s="26"/>
     </row>
-    <row r="385" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B385" s="26"/>
     </row>
-    <row r="386" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" s="26"/>
     </row>
-    <row r="387" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" s="26"/>
     </row>
-    <row r="388" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B388" s="26"/>
     </row>
-    <row r="389" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" s="26"/>
     </row>
-    <row r="390" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B390" s="26"/>
     </row>
-    <row r="391" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B391" s="26"/>
     </row>
-    <row r="392" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" s="26"/>
     </row>
-    <row r="393" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B393" s="26"/>
     </row>
-    <row r="394" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394" s="26"/>
     </row>
-    <row r="395" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" s="26"/>
     </row>
-    <row r="396" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B396" s="26"/>
     </row>
-    <row r="397" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B397" s="26"/>
     </row>
-    <row r="398" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398" s="26"/>
     </row>
-    <row r="399" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B399" s="26"/>
     </row>
-    <row r="400" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B400" s="26"/>
     </row>
-    <row r="401" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B401" s="26"/>
     </row>
-    <row r="402" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B402" s="26"/>
     </row>
-    <row r="403" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B403" s="26"/>
     </row>
-    <row r="404" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B404" s="26"/>
     </row>
-    <row r="405" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B405" s="26"/>
     </row>
-    <row r="406" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B406" s="26"/>
     </row>
-    <row r="407" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" s="26"/>
     </row>
-    <row r="408" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B408" s="26"/>
     </row>
-    <row r="409" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B409" s="26"/>
     </row>
-    <row r="410" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B410" s="26"/>
     </row>
-    <row r="411" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B411" s="26"/>
     </row>
-    <row r="412" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B412" s="26"/>
     </row>
-    <row r="413" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B413" s="26"/>
     </row>
-    <row r="414" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B414" s="26"/>
     </row>
-    <row r="415" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B415" s="26"/>
     </row>
-    <row r="416" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B416" s="26"/>
     </row>
-    <row r="417" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B417" s="26"/>
     </row>
-    <row r="418" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="418" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B418" s="26"/>
     </row>
-    <row r="419" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B419" s="26"/>
     </row>
-    <row r="420" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B420" s="26"/>
     </row>
-    <row r="421" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B421" s="26"/>
     </row>
-    <row r="422" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B422" s="26"/>
     </row>
-    <row r="423" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B423" s="26"/>
     </row>
-    <row r="424" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B424" s="26"/>
     </row>
-    <row r="425" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B425" s="26"/>
     </row>
-    <row r="426" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B426" s="26"/>
     </row>
-    <row r="427" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B427" s="26"/>
     </row>
-    <row r="428" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B428" s="26"/>
     </row>
-    <row r="429" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B429" s="26"/>
     </row>
-    <row r="430" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="430" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B430" s="26"/>
     </row>
-    <row r="431" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="431" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B431" s="26"/>
     </row>
-    <row r="432" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="432" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B432" s="26"/>
     </row>
-    <row r="433" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="433" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B433" s="26"/>
     </row>
-    <row r="434" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="434" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B434" s="26"/>
     </row>
-    <row r="435" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="435" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B435" s="26"/>
     </row>
-    <row r="436" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="436" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B436" s="26"/>
     </row>
-    <row r="437" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="437" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B437" s="26"/>
     </row>
-    <row r="438" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="438" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B438" s="26"/>
     </row>
-    <row r="439" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="439" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B439" s="26"/>
     </row>
-    <row r="440" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="440" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B440" s="26"/>
     </row>
-    <row r="441" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="441" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B441" s="26"/>
     </row>
-    <row r="442" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="442" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B442" s="26"/>
     </row>
-    <row r="443" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="443" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B443" s="26"/>
     </row>
-    <row r="444" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="444" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B444" s="26"/>
     </row>
-    <row r="445" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="445" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B445" s="26"/>
     </row>
-    <row r="446" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="446" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B446" s="26"/>
     </row>
-    <row r="447" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="447" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B447" s="26"/>
     </row>
-    <row r="448" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="448" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B448" s="26"/>
     </row>
-    <row r="449" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="449" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B449" s="26"/>
     </row>
-    <row r="450" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="450" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B450" s="26"/>
     </row>
-    <row r="451" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="451" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B451" s="26"/>
     </row>
-    <row r="452" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="452" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B452" s="26"/>
     </row>
-    <row r="453" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="453" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B453" s="26"/>
     </row>
-    <row r="454" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="454" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B454" s="26"/>
     </row>
-    <row r="455" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="455" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B455" s="26"/>
     </row>
-    <row r="456" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="456" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B456" s="26"/>
     </row>
-    <row r="457" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="457" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B457" s="26"/>
     </row>
-    <row r="458" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="458" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B458" s="26"/>
     </row>
-    <row r="459" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="459" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B459" s="26"/>
     </row>
-    <row r="460" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="460" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B460" s="26"/>
     </row>
-    <row r="461" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="461" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B461" s="26"/>
     </row>
-    <row r="462" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="462" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B462" s="26"/>
     </row>
-    <row r="463" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="463" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B463" s="26"/>
     </row>
-    <row r="464" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="464" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B464" s="26"/>
     </row>
-    <row r="465" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="465" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B465" s="26"/>
     </row>
-    <row r="466" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="466" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B466" s="26"/>
     </row>
-    <row r="467" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="467" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B467" s="26"/>
     </row>
-    <row r="468" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="468" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B468" s="26"/>
     </row>
-    <row r="469" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="469" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B469" s="26"/>
     </row>
-    <row r="470" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="470" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B470" s="26"/>
     </row>
-    <row r="471" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="471" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B471" s="26"/>
     </row>
-    <row r="472" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="472" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B472" s="26"/>
     </row>
-    <row r="473" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="473" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B473" s="26"/>
     </row>
-    <row r="474" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="474" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B474" s="26"/>
     </row>
-    <row r="475" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="475" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B475" s="26"/>
     </row>
-    <row r="476" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="476" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B476" s="26"/>
     </row>
-    <row r="477" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="477" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B477" s="26"/>
     </row>
-    <row r="478" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="478" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B478" s="26"/>
     </row>
-    <row r="479" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="479" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B479" s="26"/>
     </row>
-    <row r="480" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="480" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B480" s="26"/>
     </row>
-    <row r="481" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B481" s="26"/>
     </row>
-    <row r="482" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B482" s="26"/>
     </row>
-    <row r="483" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B483" s="26"/>
     </row>
-    <row r="484" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B484" s="26"/>
     </row>
-    <row r="485" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B485" s="26"/>
     </row>
-    <row r="486" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B486" s="26"/>
     </row>
-    <row r="487" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B487" s="26"/>
     </row>
-    <row r="488" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B488" s="26"/>
     </row>
-    <row r="489" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B489" s="26"/>
     </row>
-    <row r="490" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B490" s="26"/>
     </row>
-    <row r="491" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B491" s="26"/>
     </row>
-    <row r="492" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B492" s="26"/>
     </row>
-    <row r="493" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B493" s="26"/>
     </row>
-    <row r="494" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B494" s="26"/>
     </row>
-    <row r="495" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B495" s="26"/>
     </row>
-    <row r="496" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B496" s="26"/>
     </row>
-    <row r="497" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B497" s="26"/>
     </row>
-    <row r="498" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B498" s="26"/>
     </row>
-    <row r="499" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B499" s="26"/>
     </row>
-    <row r="500" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B500" s="26"/>
     </row>
-    <row r="501" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B501" s="26"/>
     </row>
-    <row r="502" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B502" s="26"/>
     </row>
-    <row r="503" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B503" s="26"/>
     </row>
-    <row r="504" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B504" s="26"/>
     </row>
-    <row r="505" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B505" s="26"/>
     </row>
-    <row r="506" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B506" s="26"/>
     </row>
-    <row r="507" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B507" s="26"/>
     </row>
-    <row r="508" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B508" s="26"/>
     </row>
-    <row r="509" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B509" s="26"/>
     </row>
-    <row r="510" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B510" s="26"/>
     </row>
-    <row r="511" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B511" s="26"/>
     </row>
-    <row r="512" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B512" s="26"/>
     </row>
-    <row r="513" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B513" s="26"/>
     </row>
-    <row r="514" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B514" s="26"/>
     </row>
-    <row r="515" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B515" s="26"/>
     </row>
-    <row r="516" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B516" s="26"/>
     </row>
-    <row r="517" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B517" s="26"/>
     </row>
-    <row r="518" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B518" s="26"/>
     </row>
-    <row r="519" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B519" s="26"/>
     </row>
-    <row r="520" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B520" s="26"/>
     </row>
-    <row r="521" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B521" s="26"/>
     </row>
-    <row r="522" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B522" s="26"/>
     </row>
-    <row r="523" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B523" s="26"/>
     </row>
-    <row r="524" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B524" s="26"/>
     </row>
-    <row r="525" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B525" s="26"/>
     </row>
-    <row r="526" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B526" s="26"/>
     </row>
-    <row r="527" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B527" s="26"/>
     </row>
-    <row r="528" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B528" s="26"/>
     </row>
-    <row r="529" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B529" s="26"/>
     </row>
-    <row r="530" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B530" s="26"/>
     </row>
-    <row r="531" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B531" s="26"/>
     </row>
-    <row r="532" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B532" s="26"/>
     </row>
-    <row r="533" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B533" s="26"/>
     </row>
-    <row r="534" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B534" s="26"/>
     </row>
-    <row r="535" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B535" s="26"/>
     </row>
-    <row r="536" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B536" s="26"/>
     </row>
-    <row r="537" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B537" s="26"/>
     </row>
-    <row r="538" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B538" s="26"/>
     </row>
-    <row r="539" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B539" s="26"/>
     </row>
-    <row r="540" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B540" s="26"/>
     </row>
-    <row r="541" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B541" s="26"/>
     </row>
-    <row r="542" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B542" s="26"/>
     </row>
-    <row r="543" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B543" s="26"/>
     </row>
-    <row r="544" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B544" s="26"/>
     </row>
-    <row r="545" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B545" s="26"/>
     </row>
-    <row r="546" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B546" s="26"/>
     </row>
-    <row r="547" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B547" s="26"/>
     </row>
-    <row r="548" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B548" s="26"/>
     </row>
-    <row r="549" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B549" s="26"/>
     </row>
-    <row r="550" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B550" s="26"/>
     </row>
-    <row r="551" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B551" s="26"/>
     </row>
-    <row r="552" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B552" s="26"/>
     </row>
-    <row r="553" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B553" s="26"/>
     </row>
-    <row r="554" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B554" s="26"/>
     </row>
-    <row r="555" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B555" s="26"/>
     </row>
-    <row r="556" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B556" s="26"/>
     </row>
-    <row r="557" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B557" s="26"/>
     </row>
-    <row r="558" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B558" s="26"/>
     </row>
-    <row r="559" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B559" s="26"/>
     </row>
-    <row r="560" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B560" s="26"/>
     </row>
-    <row r="561" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B561" s="26"/>
     </row>
-    <row r="562" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B562" s="26"/>
     </row>
-    <row r="563" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B563" s="26"/>
     </row>
-    <row r="564" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B564" s="26"/>
     </row>
-    <row r="565" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B565" s="26"/>
     </row>
-    <row r="566" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B566" s="26"/>
     </row>
-    <row r="567" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B567" s="26"/>
     </row>
-    <row r="568" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B568" s="26"/>
     </row>
-    <row r="569" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B569" s="26"/>
     </row>
-    <row r="570" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B570" s="26"/>
     </row>
-    <row r="571" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B571" s="26"/>
     </row>
-    <row r="572" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B572" s="26"/>
     </row>
-    <row r="573" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B573" s="26"/>
     </row>
-    <row r="574" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B574" s="26"/>
     </row>
-    <row r="575" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B575" s="26"/>
     </row>
-    <row r="576" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B576" s="26"/>
     </row>
-    <row r="577" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B577" s="26"/>
     </row>
-    <row r="578" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B578" s="26"/>
     </row>
-    <row r="579" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B579" s="26"/>
     </row>
-    <row r="580" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B580" s="26"/>
     </row>
-    <row r="581" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B581" s="26"/>
     </row>
-    <row r="582" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B582" s="26"/>
     </row>
-    <row r="583" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B583" s="26"/>
     </row>
-    <row r="584" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B584" s="26"/>
     </row>
-    <row r="585" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B585" s="26"/>
     </row>
-    <row r="586" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B586" s="26"/>
     </row>
-    <row r="587" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B587" s="26"/>
     </row>
-    <row r="588" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B588" s="26"/>
     </row>
-    <row r="589" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B589" s="26"/>
     </row>
-    <row r="590" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B590" s="26"/>
     </row>
-    <row r="591" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B591" s="26"/>
     </row>
-    <row r="592" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B592" s="26"/>
     </row>
-    <row r="593" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B593" s="26"/>
     </row>
-    <row r="594" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B594" s="26"/>
     </row>
-    <row r="595" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B595" s="26"/>
     </row>
-    <row r="596" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B596" s="26"/>
     </row>
-    <row r="597" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B597" s="26"/>
     </row>
-    <row r="598" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B598" s="26"/>
     </row>
-    <row r="599" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B599" s="26"/>
     </row>
-    <row r="600" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B600" s="26"/>
     </row>
-    <row r="601" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B601" s="26"/>
     </row>
-    <row r="602" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B602" s="26"/>
     </row>
-    <row r="603" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B603" s="26"/>
     </row>
-    <row r="604" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B604" s="26"/>
     </row>
-    <row r="605" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B605" s="26"/>
     </row>
-    <row r="606" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B606" s="26"/>
     </row>
-    <row r="607" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B607" s="26"/>
     </row>
-    <row r="608" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B608" s="26"/>
     </row>
-    <row r="609" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B609" s="26"/>
     </row>
-    <row r="610" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B610" s="26"/>
     </row>
-    <row r="611" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B611" s="26"/>
     </row>
-    <row r="612" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B612" s="26"/>
     </row>
-    <row r="613" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B613" s="26"/>
     </row>
-    <row r="614" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B614" s="26"/>
     </row>
-    <row r="615" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B615" s="26"/>
     </row>
-    <row r="616" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B616" s="26"/>
     </row>
-    <row r="617" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B617" s="26"/>
     </row>
-    <row r="618" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B618" s="26"/>
     </row>
-    <row r="619" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B619" s="26"/>
     </row>
-    <row r="620" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B620" s="26"/>
     </row>
-    <row r="621" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B621" s="26"/>
     </row>
-    <row r="622" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B622" s="26"/>
     </row>
-    <row r="623" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B623" s="26"/>
     </row>
-    <row r="624" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="624" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B624" s="26"/>
     </row>
-    <row r="625" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B625" s="26"/>
     </row>
-    <row r="626" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B626" s="26"/>
     </row>
-    <row r="627" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B627" s="26"/>
     </row>
-    <row r="628" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B628" s="26"/>
     </row>
-    <row r="629" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B629" s="26"/>
     </row>
-    <row r="630" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B630" s="26"/>
     </row>
-    <row r="631" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B631" s="26"/>
     </row>
-    <row r="632" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B632" s="26"/>
     </row>
-    <row r="633" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B633" s="26"/>
     </row>
-    <row r="634" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B634" s="26"/>
     </row>
-    <row r="635" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B635" s="26"/>
     </row>
-    <row r="636" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B636" s="26"/>
     </row>
-    <row r="637" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B637" s="26"/>
     </row>
-    <row r="638" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B638" s="26"/>
     </row>
-    <row r="639" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B639" s="26"/>
     </row>
-    <row r="640" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B640" s="26"/>
     </row>
-    <row r="641" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B641" s="26"/>
     </row>
-    <row r="642" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B642" s="26"/>
     </row>
-    <row r="643" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B643" s="26"/>
     </row>
-    <row r="644" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B644" s="26"/>
     </row>
-    <row r="645" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B645" s="26"/>
     </row>
-    <row r="646" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B646" s="26"/>
     </row>
-    <row r="647" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="647" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B647" s="26"/>
     </row>
-    <row r="648" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="648" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B648" s="26"/>
     </row>
-    <row r="649" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B649" s="26"/>
     </row>
-    <row r="650" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B650" s="26"/>
     </row>
-    <row r="651" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="651" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B651" s="26"/>
     </row>
-    <row r="652" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B652" s="26"/>
     </row>
-    <row r="653" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B653" s="26"/>
     </row>
-    <row r="654" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B654" s="26"/>
     </row>
-    <row r="655" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="655" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B655" s="26"/>
     </row>
-    <row r="656" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="656" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B656" s="26"/>
     </row>
-    <row r="657" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B657" s="26"/>
     </row>
-    <row r="658" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B658" s="26"/>
     </row>
-    <row r="659" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B659" s="26"/>
     </row>
-    <row r="660" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B660" s="26"/>
     </row>
-    <row r="661" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B661" s="26"/>
     </row>
-    <row r="662" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B662" s="26"/>
     </row>
-    <row r="663" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B663" s="26"/>
     </row>
-    <row r="664" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B664" s="26"/>
     </row>
-    <row r="665" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B665" s="26"/>
     </row>
-    <row r="666" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B666" s="26"/>
     </row>
-    <row r="667" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B667" s="26"/>
     </row>
-    <row r="668" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B668" s="26"/>
     </row>
-    <row r="669" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B669" s="26"/>
     </row>
-    <row r="670" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B670" s="26"/>
     </row>
-    <row r="671" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B671" s="26"/>
     </row>
-    <row r="672" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B672" s="26"/>
     </row>
-    <row r="673" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B673" s="26"/>
     </row>
-    <row r="674" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B674" s="26"/>
     </row>
-    <row r="675" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B675" s="26"/>
     </row>
-    <row r="676" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B676" s="26"/>
     </row>
-    <row r="677" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B677" s="26"/>
     </row>
-    <row r="678" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B678" s="26"/>
     </row>
-    <row r="679" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B679" s="26"/>
     </row>
-    <row r="680" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B680" s="26"/>
     </row>
-    <row r="681" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B681" s="26"/>
     </row>
-    <row r="682" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B682" s="26"/>
     </row>
-    <row r="683" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B683" s="26"/>
     </row>
-    <row r="684" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B684" s="26"/>
     </row>
-    <row r="685" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B685" s="26"/>
     </row>
-    <row r="686" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B686" s="26"/>
     </row>
-    <row r="687" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B687" s="26"/>
     </row>
-    <row r="688" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B688" s="26"/>
     </row>
-    <row r="689" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B689" s="26"/>
     </row>
-    <row r="690" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B690" s="26"/>
     </row>
-    <row r="691" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B691" s="26"/>
     </row>
-    <row r="692" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B692" s="26"/>
     </row>
-    <row r="693" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B693" s="26"/>
     </row>
-    <row r="694" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B694" s="26"/>
     </row>
-    <row r="695" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B695" s="26"/>
     </row>
-    <row r="696" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B696" s="26"/>
     </row>
-    <row r="697" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B697" s="26"/>
     </row>
-    <row r="698" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B698" s="26"/>
     </row>
-    <row r="699" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B699" s="26"/>
     </row>
-    <row r="700" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B700" s="26"/>
     </row>
-    <row r="701" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B701" s="26"/>
     </row>
-    <row r="702" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B702" s="26"/>
     </row>
-    <row r="703" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B703" s="26"/>
     </row>
-    <row r="704" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B704" s="26"/>
     </row>
-    <row r="705" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B705" s="26"/>
     </row>
-    <row r="706" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B706" s="26"/>
     </row>
-    <row r="707" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B707" s="26"/>
     </row>
-    <row r="708" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B708" s="26"/>
     </row>
-    <row r="709" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B709" s="26"/>
     </row>
-    <row r="710" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B710" s="26"/>
     </row>
-    <row r="711" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="711" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B711" s="26"/>
     </row>
-    <row r="712" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="712" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B712" s="26"/>
     </row>
-    <row r="713" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="713" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B713" s="26"/>
     </row>
-    <row r="714" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="714" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B714" s="26"/>
     </row>
-    <row r="715" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="715" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B715" s="26"/>
     </row>
-    <row r="716" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="716" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B716" s="26"/>
     </row>
-    <row r="717" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="717" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B717" s="26"/>
     </row>
-    <row r="718" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="718" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B718" s="26"/>
     </row>
-    <row r="719" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="719" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B719" s="26"/>
     </row>
-    <row r="720" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="720" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B720" s="26"/>
     </row>
-    <row r="721" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="721" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B721" s="26"/>
     </row>
-    <row r="722" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="722" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B722" s="26"/>
     </row>
-    <row r="723" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="723" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B723" s="26"/>
     </row>
-    <row r="724" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="724" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B724" s="26"/>
     </row>
-    <row r="725" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="725" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B725" s="26"/>
     </row>
-    <row r="726" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="726" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B726" s="26"/>
     </row>
-    <row r="727" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="727" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B727" s="26"/>
     </row>
-    <row r="728" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="728" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B728" s="26"/>
     </row>
-    <row r="729" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="729" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B729" s="26"/>
     </row>
-    <row r="730" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="730" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B730" s="26"/>
     </row>
-    <row r="731" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="731" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B731" s="26"/>
     </row>
-    <row r="732" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="732" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B732" s="26"/>
     </row>
-    <row r="733" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="733" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B733" s="26"/>
     </row>
-    <row r="734" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="734" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B734" s="26"/>
     </row>
-    <row r="735" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="735" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B735" s="26"/>
     </row>
-    <row r="736" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="736" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B736" s="26"/>
     </row>
-    <row r="737" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="737" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B737" s="26"/>
     </row>
-    <row r="738" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="738" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B738" s="26"/>
     </row>
-    <row r="739" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="739" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B739" s="26"/>
     </row>
-    <row r="740" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="740" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B740" s="26"/>
     </row>
-    <row r="741" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="741" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B741" s="26"/>
     </row>
-    <row r="742" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="742" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B742" s="26"/>
     </row>
-    <row r="743" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="743" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B743" s="26"/>
     </row>
-    <row r="744" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="744" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B744" s="26"/>
     </row>
-    <row r="745" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="745" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B745" s="26"/>
     </row>
-    <row r="746" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="746" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B746" s="26"/>
     </row>
-    <row r="747" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="747" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B747" s="26"/>
     </row>
-    <row r="748" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="748" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B748" s="26"/>
     </row>
-    <row r="749" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="749" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B749" s="26"/>
     </row>
-    <row r="750" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="750" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B750" s="26"/>
     </row>
-    <row r="751" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="751" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B751" s="26"/>
     </row>
-    <row r="752" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="752" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B752" s="26"/>
     </row>
-    <row r="753" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="753" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B753" s="26"/>
     </row>
-    <row r="754" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="754" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B754" s="26"/>
     </row>
-    <row r="755" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="755" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B755" s="26"/>
     </row>
-    <row r="756" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="756" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B756" s="26"/>
     </row>
-    <row r="757" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="757" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B757" s="26"/>
     </row>
-    <row r="758" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="758" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B758" s="26"/>
     </row>
-    <row r="759" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="759" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B759" s="26"/>
     </row>
-    <row r="760" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="760" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B760" s="26"/>
     </row>
-    <row r="761" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="761" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B761" s="26"/>
     </row>
-    <row r="762" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="762" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B762" s="26"/>
     </row>
-    <row r="763" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="763" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B763" s="26"/>
     </row>
-    <row r="764" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="764" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B764" s="26"/>
     </row>
-    <row r="765" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="765" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B765" s="26"/>
     </row>
-    <row r="766" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="766" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B766" s="26"/>
     </row>
-    <row r="767" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="767" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B767" s="26"/>
     </row>
-    <row r="768" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="768" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B768" s="26"/>
     </row>
-    <row r="769" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="769" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B769" s="26"/>
     </row>
-    <row r="770" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="770" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B770" s="26"/>
     </row>
-    <row r="771" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="771" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B771" s="26"/>
     </row>
-    <row r="772" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="772" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B772" s="26"/>
     </row>
-    <row r="773" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="773" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B773" s="26"/>
     </row>
-    <row r="774" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="774" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B774" s="26"/>
     </row>
-    <row r="775" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="775" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B775" s="26"/>
     </row>
-    <row r="776" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="776" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B776" s="26"/>
     </row>
-    <row r="777" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="777" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B777" s="26"/>
     </row>
-    <row r="778" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="778" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B778" s="26"/>
     </row>
-    <row r="779" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="779" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B779" s="26"/>
     </row>
-    <row r="780" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="780" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B780" s="26"/>
     </row>
-    <row r="781" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="781" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B781" s="26"/>
     </row>
-    <row r="782" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="782" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B782" s="26"/>
     </row>
-    <row r="783" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="783" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B783" s="26"/>
     </row>
-    <row r="784" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="784" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B784" s="26"/>
     </row>
-    <row r="785" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="785" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B785" s="26"/>
     </row>
-    <row r="786" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="786" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B786" s="26"/>
     </row>
-    <row r="787" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="787" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B787" s="26"/>
     </row>
-    <row r="788" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="788" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B788" s="26"/>
     </row>
-    <row r="789" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="789" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B789" s="26"/>
     </row>
-    <row r="790" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="790" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B790" s="26"/>
     </row>
-    <row r="791" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="791" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B791" s="26"/>
     </row>
-    <row r="792" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="792" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B792" s="26"/>
     </row>
-    <row r="793" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="793" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B793" s="26"/>
     </row>
-    <row r="794" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="794" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B794" s="26"/>
     </row>
-    <row r="795" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="795" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B795" s="26"/>
     </row>
-    <row r="796" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="796" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B796" s="26"/>
     </row>
-    <row r="797" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="797" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B797" s="26"/>
     </row>
-    <row r="798" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="798" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B798" s="26"/>
     </row>
-    <row r="799" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="799" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B799" s="26"/>
     </row>
-    <row r="800" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="800" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B800" s="26"/>
     </row>
-    <row r="801" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="801" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B801" s="26"/>
     </row>
-    <row r="802" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="802" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B802" s="26"/>
     </row>
-    <row r="803" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="803" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B803" s="26"/>
     </row>
-    <row r="804" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="804" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B804" s="26"/>
     </row>
-    <row r="805" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="805" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B805" s="26"/>
     </row>
-    <row r="806" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="806" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B806" s="26"/>
     </row>
-    <row r="807" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="807" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B807" s="26"/>
     </row>
-    <row r="808" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="808" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B808" s="26"/>
     </row>
-    <row r="809" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="809" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B809" s="26"/>
     </row>
-    <row r="810" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="810" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B810" s="26"/>
     </row>
-    <row r="811" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="811" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B811" s="26"/>
     </row>
-    <row r="812" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="812" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B812" s="26"/>
     </row>
-    <row r="813" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="813" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B813" s="26"/>
     </row>
-    <row r="814" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="814" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B814" s="26"/>
     </row>
-    <row r="815" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="815" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B815" s="26"/>
     </row>
-    <row r="816" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="816" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B816" s="26"/>
     </row>
-    <row r="817" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="817" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B817" s="26"/>
     </row>
-    <row r="818" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="818" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B818" s="26"/>
     </row>
-    <row r="819" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="819" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B819" s="26"/>
     </row>
-    <row r="820" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="820" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B820" s="26"/>
     </row>
-    <row r="821" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="821" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B821" s="26"/>
     </row>
-    <row r="822" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="822" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B822" s="26"/>
     </row>
-    <row r="823" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="823" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B823" s="26"/>
     </row>
-    <row r="824" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="824" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B824" s="26"/>
     </row>
-    <row r="825" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="825" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B825" s="26"/>
     </row>
-    <row r="826" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="826" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B826" s="26"/>
     </row>
-    <row r="827" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="827" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B827" s="26"/>
     </row>
-    <row r="828" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="828" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B828" s="26"/>
     </row>
-    <row r="829" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="829" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B829" s="26"/>
     </row>
-    <row r="830" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="830" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B830" s="26"/>
     </row>
-    <row r="831" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="831" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B831" s="26"/>
     </row>
-    <row r="832" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="832" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B832" s="26"/>
     </row>
-    <row r="833" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="833" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B833" s="26"/>
     </row>
-    <row r="834" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="834" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B834" s="26"/>
     </row>
-    <row r="835" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="835" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B835" s="26"/>
     </row>
-    <row r="836" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="836" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B836" s="26"/>
     </row>
-    <row r="837" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="837" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B837" s="26"/>
     </row>
-    <row r="838" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="838" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B838" s="26"/>
     </row>
-    <row r="839" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="839" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B839" s="26"/>
     </row>
-    <row r="840" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="840" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B840" s="26"/>
     </row>
-    <row r="841" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="841" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B841" s="26"/>
     </row>
-    <row r="842" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="842" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B842" s="26"/>
     </row>
-    <row r="843" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="843" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B843" s="26"/>
     </row>
-    <row r="844" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="844" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B844" s="26"/>
     </row>
-    <row r="845" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="845" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B845" s="26"/>
     </row>
-    <row r="846" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="846" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B846" s="26"/>
     </row>
-    <row r="847" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="847" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B847" s="26"/>
     </row>
-    <row r="848" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="848" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B848" s="26"/>
     </row>
-    <row r="849" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="849" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B849" s="26"/>
     </row>
-    <row r="850" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="850" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B850" s="26"/>
     </row>
-    <row r="851" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="851" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B851" s="26"/>
     </row>
-    <row r="852" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="852" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B852" s="26"/>
     </row>
-    <row r="853" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="853" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B853" s="26"/>
     </row>
-    <row r="854" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="854" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B854" s="26"/>
     </row>
-    <row r="855" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="855" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B855" s="26"/>
     </row>
-    <row r="856" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="856" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B856" s="26"/>
     </row>
-    <row r="857" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="857" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B857" s="26"/>
     </row>
-    <row r="858" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="858" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B858" s="26"/>
     </row>
-    <row r="859" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="859" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B859" s="26"/>
     </row>
-    <row r="860" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="860" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B860" s="26"/>
     </row>
-    <row r="861" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="861" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B861" s="26"/>
     </row>
-    <row r="862" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="862" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B862" s="26"/>
     </row>
-    <row r="863" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="863" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B863" s="26"/>
     </row>
-    <row r="864" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="864" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B864" s="26"/>
     </row>
-    <row r="865" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="865" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B865" s="26"/>
     </row>
-    <row r="866" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="866" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B866" s="26"/>
     </row>
-    <row r="867" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="867" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B867" s="26"/>
     </row>
-    <row r="868" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="868" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B868" s="26"/>
     </row>
-    <row r="869" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="869" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B869" s="26"/>
     </row>
-    <row r="870" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="870" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B870" s="26"/>
     </row>
-    <row r="871" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="871" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B871" s="26"/>
     </row>
-    <row r="872" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="872" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B872" s="26"/>
     </row>
-    <row r="873" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="873" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B873" s="26"/>
     </row>
-    <row r="874" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="874" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B874" s="26"/>
     </row>
-    <row r="875" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="875" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B875" s="26"/>
     </row>
-    <row r="876" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="876" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B876" s="26"/>
     </row>
-    <row r="877" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="877" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B877" s="26"/>
     </row>
-    <row r="878" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="878" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B878" s="26"/>
     </row>
-    <row r="879" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="879" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B879" s="26"/>
     </row>
-    <row r="880" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="880" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B880" s="26"/>
     </row>
-    <row r="881" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="881" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B881" s="26"/>
     </row>
-    <row r="882" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="882" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B882" s="26"/>
     </row>
-    <row r="883" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="883" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B883" s="26"/>
     </row>
-    <row r="884" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="884" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B884" s="26"/>
     </row>
-    <row r="885" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="885" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B885" s="26"/>
     </row>
-    <row r="886" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="886" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B886" s="26"/>
     </row>
-    <row r="887" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="887" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B887" s="26"/>
     </row>
-    <row r="888" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="888" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B888" s="26"/>
     </row>
-    <row r="889" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="889" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B889" s="26"/>
     </row>
-    <row r="890" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="890" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B890" s="26"/>
     </row>
-    <row r="891" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="891" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B891" s="26"/>
     </row>
-    <row r="892" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="892" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B892" s="26"/>
     </row>
-    <row r="893" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="893" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B893" s="26"/>
     </row>
-    <row r="894" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="894" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B894" s="26"/>
     </row>
-    <row r="895" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="895" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B895" s="26"/>
     </row>
-    <row r="896" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="896" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B896" s="26"/>
     </row>
-    <row r="897" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="897" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B897" s="26"/>
     </row>
-    <row r="898" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="898" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B898" s="26"/>
     </row>
-    <row r="899" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="899" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B899" s="26"/>
     </row>
-    <row r="900" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="900" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B900" s="26"/>
     </row>
-    <row r="901" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="901" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B901" s="26"/>
     </row>
-    <row r="902" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="902" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B902" s="26"/>
     </row>
-    <row r="903" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="903" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B903" s="26"/>
     </row>
-    <row r="904" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="904" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B904" s="26"/>
     </row>
-    <row r="905" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="905" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B905" s="26"/>
     </row>
-    <row r="906" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="906" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B906" s="26"/>
     </row>
-    <row r="907" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="907" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B907" s="26"/>
     </row>
-    <row r="908" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="908" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B908" s="26"/>
     </row>
-    <row r="909" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="909" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B909" s="26"/>
     </row>
-    <row r="910" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="910" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B910" s="26"/>
     </row>
   </sheetData>
@@ -4993,17 +4995,17 @@
       <selection activeCell="A4" sqref="A4:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>117</v>
       </c>
@@ -5020,7 +5022,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
